--- a/war.xlsx
+++ b/war.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">新スニ情報！！！!!!
 【国内7月2日発売予定】ナイキ エアフォース 1 ‘07 LV8 "ワールド チャンプ" ホワイト/ブラック(DR9866-100)
@@ -460,6 +460,15 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新スニ情報！！！!!!
+【国内7月7日発売予定】ニューバランス M990V2 バイ テディ・サンティス(M990TE2)
+国内価格31,900円 </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/war.xlsx
+++ b/war.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">新スニ情報！！！!!!
 【国内7月7日発売予定】ニューバランス M990V2 バイ テディ・サンティス(M990TE2)
@@ -469,6 +469,15 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新スニ情報!!!
+【国内7月2日発売予定】ナイキ ダンク ロー レトロ SE "ワールド チャンプ" ブラック/ホワイト-ゴールド(DR9511-100)
+ </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/war.xlsx
+++ b/war.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,10 +470,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">新スニ情報!!!
 【国内7月2日発売予定】ナイキ ダンク ロー レトロ SE "ワールド チャンプ" ブラック/ホワイト-ゴールド(DR9511-100)
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新スニ情報!!!
+【リーク】ハフ × ナイキ SB ダンク ロー 全3色
  </t>
         </is>
       </c>

--- a/war.xlsx
+++ b/war.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">新スニ情報!!!
 【リーク】ハフ × ナイキ SB ダンク ロー 全3色
@@ -487,6 +487,15 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新スニ情報!!!
+【国内7月9日発売予定】ナイキ エアジョーダン 3 レトロ "ダーク アイリス" ホワイト/ブラック-ダーク アイリス-セメント グレー(CT8532-105)
+国内価格24,200円 </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/war.xlsx
+++ b/war.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +488,20 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">新スニ情報!!!
 【国内7月9日発売予定】ナイキ エアジョーダン 3 レトロ "ダーク アイリス" ホワイト/ブラック-ダーク アイリス-セメント グレー(CT8532-105)
 国内価格24,200円 </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新スニ情報!!!
+【国内先行予約受付中/8月発売予定】アーバンリサーチ × アディダス オリジナルス スタンスミス トープ(HP5511)
+国内価格14,300円 </t>
         </is>
       </c>
     </row>
